--- a/7a.xlsx
+++ b/7a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piotrek\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EAC753-7CC8-4C90-A2F6-354082DAA2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736E7D2C-3527-4396-B4BD-28232B3472F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{4E89441E-9AA3-4476-B406-90D2122CA79A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{4E89441E-9AA3-4476-B406-90D2122CA79A}"/>
   </bookViews>
   <sheets>
     <sheet name="Baza1" sheetId="1" r:id="rId1"/>
@@ -568,12 +568,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -668,7 +692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -691,7 +715,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1008,7 +1041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECDF766-AF14-43D4-8096-D087EBFEC559}">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
@@ -2125,8 +2158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238AD3B7-43A8-4E56-884F-8723DA9899C5}">
   <dimension ref="A7:P46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2136,7 +2169,7 @@
     <col min="3" max="3" width="20.453125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="15.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" customWidth="1"/>
+    <col min="6" max="6" width="22.08984375" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" customWidth="1"/>
     <col min="8" max="8" width="13.7265625" customWidth="1"/>
     <col min="9" max="9" width="11.26953125" customWidth="1"/>
@@ -2149,261 +2182,265 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="31" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="26" t="s">
         <v>87</v>
       </c>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="7" t="s">
         <v>93</v>
       </c>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="7" t="s">
         <v>99</v>
       </c>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="10" t="s">
         <v>103</v>
       </c>
+      <c r="G12" s="22"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="30" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="26" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="23">
         <v>40</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="22">
         <v>130</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="7">
         <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="22">
         <v>200</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="7">
         <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="9">
         <v>89</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="10">
         <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="29" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2419,181 +2456,181 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="26" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="23">
         <v>40</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="22">
         <v>130</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="7">
         <v>150</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="22">
         <v>200</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="7">
         <v>220</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="9">
         <v>89</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="10">
         <v>110</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="10" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" s="28" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2615,34 +2652,34 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="26" t="s">
         <v>146</v>
       </c>
       <c r="O34" t="s">
@@ -2653,34 +2690,34 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A35">
+      <c r="A35" s="6">
         <v>1</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="6">
         <v>1</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="27">
         <v>40</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="6">
         <v>1</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="22">
         <v>130</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="7">
         <v>150</v>
       </c>
       <c r="O35">
@@ -2691,34 +2728,34 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A36">
+      <c r="A36" s="6">
         <v>2</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="6">
         <v>2</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="6">
         <v>2</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="22">
         <v>200</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="7">
         <v>220</v>
       </c>
       <c r="O36">
@@ -2729,34 +2766,34 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A37">
+      <c r="A37" s="6">
         <v>3</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="6">
         <v>3</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="8">
         <v>3</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="9">
         <v>89</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="10">
         <v>110</v>
       </c>
       <c r="O37">
@@ -2767,48 +2804,48 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A38">
+      <c r="A38" s="6">
         <v>4</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="6">
         <v>4</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A39">
+      <c r="A39" s="8">
         <v>5</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="8">
         <v>5</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="10" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2818,106 +2855,106 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="26" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A44">
+      <c r="A44" s="6">
         <v>1</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="22">
         <v>1</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="22">
         <v>1</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="22">
         <v>3</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="22">
         <v>3</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="22">
         <v>3</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="22">
         <v>1</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A45">
+      <c r="A45" s="6">
         <v>2</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="22">
         <v>2</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="22">
         <v>2</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="22">
         <v>4</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="22">
         <v>4</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="22">
         <v>4</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="22">
         <v>2</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A46">
+      <c r="A46" s="8">
         <v>2</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="9">
         <v>2</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="9">
         <v>2</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="9">
         <v>5</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="9">
         <v>5</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="9">
         <v>5</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="9">
         <v>3</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="10">
         <v>3</v>
       </c>
     </row>
